--- a/Audit SEO/Modèle-audit-SEO (1).xlsx
+++ b/Audit SEO/Modèle-audit-SEO (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Openclassromms_projets_Marwa_FRAWES\P4_sources+site+La+Panthere\Audit SEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B985E64-4197-4004-A4AF-38C410C18A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACC9043-16C2-4A82-945E-AA9220B3F9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Catégorie</t>
   </si>
@@ -60,9 +60,6 @@
     <t xml:space="preserve">SEO et accessibilité </t>
   </si>
   <si>
-    <t>SEO et accesimbilité</t>
-  </si>
-  <si>
     <t xml:space="preserve">Accessibilité </t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t xml:space="preserve">Couleurs + Ecritures </t>
   </si>
   <si>
-    <t xml:space="preserve">Supprmier les balises </t>
-  </si>
-  <si>
     <t xml:space="preserve">Elements ajoutés sans aucune utilité " Toggle navigation" </t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t xml:space="preserve">plusieurs liens inutiles </t>
   </si>
   <si>
-    <t xml:space="preserve">Changement de la taille des dofférentes images + </t>
-  </si>
-  <si>
     <t>Privilégier le CSS. Néanmoins ici le choix a été fait de le conserver notamment pour les besoins du bouton scrollToTop</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>Afin de réduire le poids de la page, il est conseillé de minifier le code</t>
   </si>
   <si>
-    <t>Un code non minifié alourdit la page et ralentit son chargement</t>
-  </si>
-  <si>
     <t>Minifier les codes présents</t>
   </si>
   <si>
@@ -150,23 +138,68 @@
     <t>Remplacez IMG par Label +H1, H2</t>
   </si>
   <si>
-    <t xml:space="preserve">Utlisation d'autres balises sémantiques pour le référencement  ( header , main ) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">suppression </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bonne pratique à adopter ( un truc plus général ) </t>
   </si>
   <si>
     <t xml:space="preserve">Eviter toutes les discriptions en mode IMG </t>
+  </si>
+  <si>
+    <t>SEO et accesibilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimisation du site ( chargement de site ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprmier les balises inutiles </t>
+  </si>
+  <si>
+    <t>Utlisation d'autres balises sémantiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai utilisé les balises  pour sémantiques le référencement  ( header , main )  </t>
+  </si>
+  <si>
+    <t>Un code non minifié  alourdit la page et ralentit son chargement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un responsive accessible et de qualité </t>
+  </si>
+  <si>
+    <t xml:space="preserve">modification sur les tailles des textes et les backgrounds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoir des couleurs claires et une écritures lisibles pour toute personne qui utilise le site </t>
+  </si>
+  <si>
+    <t>J'ai changé la majorité des tailles des écritures et les couleurs</t>
+  </si>
+  <si>
+    <t>suppression</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eviter la mise des liens sans aucune utilités </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changement de la taille des différentes images </t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la black hat est une pratique sanctionnée par Google. A éviter </t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/6737231-entrainez-vous-en-optimisant-votre-premiere-page-de-contenu</t>
+  </si>
+  <si>
+    <t>https://blog.hubspot.fr/marketing/balises-semantiques#:~:text=Qu'est%2Dce%20qu',des%20informations%20qu'elle%20encadre.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +242,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -302,10 +341,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -334,17 +374,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0FB09D-43E8-4BB1-B5A9-E7B19EBB7D02}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3046875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -569,7 +619,7 @@
     <col min="1" max="1" width="21.3046875" customWidth="1"/>
     <col min="2" max="2" width="24.921875" customWidth="1"/>
     <col min="3" max="3" width="35.921875" customWidth="1"/>
-    <col min="4" max="4" width="23.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.61328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.3046875" customWidth="1"/>
     <col min="7" max="26" width="10.53515625" customWidth="1"/>
@@ -586,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
@@ -630,16 +680,18 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -649,12 +701,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="56" customHeight="1" x14ac:dyDescent="0.35">
@@ -662,97 +716,99 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>11</v>
+      <c r="A8" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -760,34 +816,52 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1781,6 +1855,10 @@
     <row r="999" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1000" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{A3C7FA99-E008-4936-901F-F1BA8C6A038B}"/>
+    <hyperlink ref="F6" r:id="rId2" location=":~:text=Qu'est%2Dce%20qu',des%20informations%20qu'elle%20encadre." xr:uid="{CEE709C6-DC6C-49B6-8B89-C83044B24C20}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>